--- a/lab/Practica5/Práctica 5 CWS  Laboratory Session 5 CWS-20241016/ri.jdbc.checklist.es.xlsx
+++ b/lab/Practica5/Práctica 5 CWS  Laboratory Session 5 CWS-20241016/ri.jdbc.checklist.es.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/rblanco_uniovi_es/Documents/CLASES/RI (Oviedo)/RI (compartido)/RI 2024-2025/contenido/jdbc/3.Database applications design principles/Laboratory section/p5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b4c814603cc326/Escritorio/uo/3/RI/lab/Practica5/Práctica 5 CWS  Laboratory Session 5 CWS-20241016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{9EE177EC-FC3A-4140-87A4-AB49305BDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AE673CB-1199-4895-A126-C22529B99B4E}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="13_ncr:1_{9EE177EC-FC3A-4140-87A4-AB49305BDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D404D374-95B2-4A89-9B3B-D277B787D363}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="5820" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="check list" sheetId="17" r:id="rId1"/>
@@ -860,29 +860,31 @@
   <dimension ref="B2:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="82.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -894,7 +896,9 @@
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -906,12 +910,14 @@
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1035,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
         <v>19</v>
       </c>
@@ -1142,7 +1148,7 @@
       </c>
       <c r="D35" s="19"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C37" s="12" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1234,7 @@
       </c>
       <c r="D46" s="19"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="D52" s="19"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C54" s="12" t="s">
         <v>2</v>
       </c>
@@ -1327,19 +1333,19 @@
   <dimension ref="C2:H11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1347,33 +1353,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="str">
         <f>IF(E4, "Se cumplen", "NO SE CUMPLEN")</f>
-        <v>NO SE CUMPLEN</v>
+        <v>Se cumplen</v>
       </c>
       <c r="E4" t="b">
-        <f>SUM('check list'!D3:D5) = 4</f>
-        <v>0</v>
+        <f>SUM('check list'!D3:D5) = 3</f>
+        <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="10">
         <f>IF(E4,D2+SUM(D6:D11),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
